--- a/HA Trend System statistiche.xlsx
+++ b/HA Trend System statistiche.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" tabRatio="326" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HA System" sheetId="1" r:id="rId1"/>
-    <sheet name="Trend System" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Trend System v.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Trend System v.2" sheetId="5" r:id="rId3"/>
+    <sheet name="Performance reali" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +22,7 @@
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0">
+    <comment ref="C61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0">
+    <comment ref="C70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="0">
+    <comment ref="B79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C79" authorId="0">
+    <comment ref="C79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +464,7 @@
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,11 +484,21 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
+la simulazione di v.0 è stata fatta con SL_AddedPips=100, andrebbe rifatta con 10</t>
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autore</author>
+  </authors>
+  <commentList>
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,391 +518,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B61" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C61" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B70" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C70" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B79" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Miglior valore attualmente ottimizzato</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C79" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autore:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se rosso, questo valore non è ancora stato usato nelle simulazioni riportate qui a destra. Se Verde si.</t>
+la simulazione di v.0 è stata fatta con SL_AddedPips=100, andrebbe rifatta con 10</t>
         </r>
       </text>
     </comment>
@@ -900,7 +527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="44">
   <si>
     <t>coppie</t>
   </si>
@@ -979,15 +606,69 @@
   <si>
     <t>SL_Added_Pips</t>
   </si>
+  <si>
+    <t>Cosa cambia nei test?</t>
+  </si>
+  <si>
+    <t>Cambia il tipo di calcolo effettuato per modificare la media mobile</t>
+  </si>
+  <si>
+    <t>ver 0 - media fissa OTTIMIZZATA</t>
+  </si>
+  <si>
+    <t>Profitto totale</t>
+  </si>
+  <si>
+    <t>variabili</t>
+  </si>
+  <si>
+    <t>La ver. 1 del sistema (Trend v.1) utilizza il filtro della media mobile sul prezzo attuale e NON sul prezzo del segnale. Quindi il segnale poteva essere dalla parte sbagliata della media, ma quando la barra successiva al segnale scavalla la media, lui compra (o vende) considerandosi in trend. Ma il segnale non era in trend!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUTOMA ver.1   +/-5 fisso</t>
+  </si>
+  <si>
+    <t>AUTOMA ver. 2 - Gaussiana: 1357531</t>
+  </si>
+  <si>
+    <t>AUTOMA ver. 3 - AMA</t>
+  </si>
+  <si>
+    <t>SL_AddedPips=100</t>
+  </si>
+  <si>
+    <t>maFilterPeriod</t>
+  </si>
+  <si>
+    <t>La ver. 2 del sistema (Trend v.2) utilizza il filtro della media mobile sul prezzo di chiusura del segnale.Quindi è necessario che IL SEGNALE si formi in condizioni di trend.</t>
+  </si>
+  <si>
+    <t>AUTOMA ver. 4 - AMA</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Copia</t>
+  </si>
+  <si>
+    <t>Profitto</t>
+  </si>
+  <si>
+    <t>% profitti</t>
+  </si>
+  <si>
+    <t>n° operazioni</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,8 +753,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,8 +811,18 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1186,8 +907,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1195,8 +936,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1247,22 +991,1477 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
+    <cellStyle name="Colore 1" xfId="8" builtinId="29"/>
     <cellStyle name="Colore 2" xfId="6" builtinId="33"/>
+    <cellStyle name="Colore 6" xfId="9" builtinId="49"/>
     <cellStyle name="Neutrale" xfId="5" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
+    <cellStyle name="Titolo 3" xfId="7" builtinId="18"/>
     <cellStyle name="Valore non valido" xfId="4" builtinId="27"/>
     <cellStyle name="Valore valido" xfId="3" builtinId="26"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1" descr="HA_Trend_System_v.autoMA_AUDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="3638550"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2" descr="HA_Trend_System_AutoMA_v.2_AUDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17259300" y="2695575"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3" descr="HA_Trend_System_AutoMA_v.3_AUDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="2695575"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4" descr="HA_Trend_System_v.autoMA_NZDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="7096125"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5" descr="HA_Trend_System_AutoMA_v.2_NZDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17868900" y="7096125"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6" descr="HA_Trend_System_AutoMA_v.3_NZDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25698450" y="7096125"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Immagine 7" descr="HA_Trend_System_v.autoMA_GBPUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="9591675"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 8" descr="HA_Trend_System_AutoMA_v.2_GBPUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17868900" y="9582150"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Immagine 9" descr="HA_Trend_System_AutoMA_v.3_GBPUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25698450" y="9572625"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Immagine 10" descr="HA_Trend_System_v.autoMA_EURUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="13039725"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Immagine 11" descr="HA_Trend_System_AutoMA_v.2_EURUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17259300" y="13039725"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Immagine 12" descr="HA_Trend_System_AutoMA_v.3_EURUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="13039725"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Immagine 13" descr="HA_Trend_System_v.autoMA_GER30.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="16668750"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Immagine 14" descr="HA_Trend_System_AutoMA_v.2_GER30.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17259300" y="16668750"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Immagine 15" descr="HA_Trend_System_AutoMA_v.3_GER30.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="16668750"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Immagine 16" descr="HA_Trend_System_v.autoMA_USDJPY.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="20173950"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Immagine 17" descr="HA_Trend_System_AutoMA_v.2_USDJPY.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17259300" y="20183475"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Immagine 18" descr="HA_Trend_System_AutoMA_v.3_USDJPY.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="20173950"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Immagine 19" descr="HA_Trend_System_v.autoMA_USDCAD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="23641050"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Immagine 20" descr="HA_Trend_System_AutoMA_v.2_USDCAD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17259300" y="23641050"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Immagine 21" descr="HA_Trend_System_AutoMA_v.3_USDCAD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="23641050"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Immagine 30" descr="HA_Trend_System - AutoMA_v.4_AUDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="2695575"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Immagine 31" descr="HA_Trend_System - AutoMA_v.4_NZDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="6153150"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Immagine 32" descr="HA_Trend_System - AutoMA_v.4_GER30.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="16668750"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Immagine 33" descr="HA_Trend_System - AutoMA_v.4_EURUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="13039725"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Immagine 34" descr="HA_Trend_System - AutoMA_v.4_GBPUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="9591675"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Immagine 35" descr="HA_Trend_System - AutoMA_v.4_USDJPY.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="20183475"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Immagine 37" descr="HA_Trend_System - AutoMA_v.4_USDCAD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32927925" y="23641050"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Immagine 22" descr="HA_Trend_System v.2 - AutoMA_v.3_AUDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="2695575"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Immagine 23" descr="HA_Trend_System v.2 - AutoMA_v.3_NZDUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="6143625"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Immagine 24" descr="HA_Trend_System v.2 - AutoMA_v.3_GBPUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="9591675"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Immagine 25" descr="HA_Trend_System v.2 - AutoMA_v.3_EURUSD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="13039725"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Immagine 26" descr="HA_Trend_System v.2 - AutoMA_v.3_GER30.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="16668750"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Immagine 27" descr="HA_Trend_System v.2 - AutoMA_v.3_USDJPY.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="20183475"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Immagine 28" descr="HA_Trend_System v.2 - AutoMA_v.3_USDCAD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088850" y="23641050"/>
+          <a:ext cx="7810500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,7 +2507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,9 +2539,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,6 +2574,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1549,14 +2750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
@@ -1575,32 +2776,32 @@
     <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="E1" s="108"/>
+      <c r="G1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="108"/>
+      <c r="J1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="K1" s="108"/>
+      <c r="M1" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="P1" s="47" t="s">
+      <c r="N1" s="108"/>
+      <c r="P1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="47"/>
-    </row>
-    <row r="2" spans="2:17">
+      <c r="Q1" s="108"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H2" s="1">
         <f>H3+H12+H21+H30+H40+H49+H58+H67+H76</f>
         <v>35009.130000000005</v>
@@ -1619,7 +2820,7 @@
         <v>20215.810000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +2843,7 @@
         <v>3771.9</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +2869,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +2895,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +2918,7 @@
         <v>958.2</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -1737,7 +2938,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +2958,7 @@
         <v>121.64</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +2978,7 @@
         <v>-70.58</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G10" s="38" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>24</v>
       </c>
@@ -1884,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>25</v>
       </c>
@@ -1916,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>11</v>
       </c>
@@ -1994,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +3209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>13</v>
       </c>
@@ -2031,7 +3232,7 @@
         <v>5141.49</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +3258,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +3284,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
@@ -2109,7 +3310,7 @@
         <v>1984.86</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +3330,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>10</v>
       </c>
@@ -2149,7 +3350,7 @@
         <v>189.47</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>11</v>
       </c>
@@ -2169,11 +3370,11 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
-      <c r="D28" s="48" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="109"/>
       <c r="G28" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +3388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>15</v>
       </c>
@@ -2210,7 +3411,7 @@
         <v>5273.65</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +3437,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>24</v>
       </c>
@@ -2262,7 +3463,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>25</v>
       </c>
@@ -2288,7 +3489,7 @@
         <v>2369.79</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>9</v>
       </c>
@@ -2308,7 +3509,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>10</v>
       </c>
@@ -2328,7 +3529,7 @@
         <v>153.11000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>11</v>
       </c>
@@ -2348,7 +3549,7 @@
         <v>-93.35</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>20</v>
       </c>
@@ -2362,11 +3563,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H38"/>
       <c r="K38"/>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +3591,7 @@
         <v>20215.810000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +3619,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
         <v>24</v>
       </c>
@@ -2446,7 +3647,7 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
         <v>25</v>
       </c>
@@ -2473,7 +3674,7 @@
         <v>3532.72</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E44" s="3"/>
       <c r="G44" s="25" t="s">
         <v>9</v>
@@ -2495,7 +3696,7 @@
         <v>26.19</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G45" s="25" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +3717,7 @@
         <v>453.74</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G46" s="25" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +3738,7 @@
         <v>-298.39</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E47"/>
       <c r="G47" t="s">
         <v>20</v>
@@ -2552,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="46" t="s">
         <v>17</v>
       </c>
@@ -2578,7 +3779,7 @@
         <v>345.22</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
         <v>23</v>
       </c>
@@ -2606,7 +3807,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>24</v>
       </c>
@@ -2634,7 +3835,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
         <v>25</v>
       </c>
@@ -2662,7 +3863,7 @@
         <v>1894.98</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
@@ -2686,7 +3887,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
@@ -2710,7 +3911,7 @@
         <v>85.41</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12" t="s">
@@ -2734,7 +3935,7 @@
         <v>-67.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -2753,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D57" s="12"/>
       <c r="E57"/>
       <c r="G57" s="12"/>
@@ -2761,7 +3962,7 @@
       <c r="J57" s="12"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="46" t="s">
         <v>18</v>
       </c>
@@ -2783,7 +3984,7 @@
         <v>1214.5</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="32" t="s">
         <v>23</v>
       </c>
@@ -2807,7 +4008,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="32" t="s">
         <v>24</v>
       </c>
@@ -2831,7 +4032,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="32" t="s">
         <v>25</v>
       </c>
@@ -2855,7 +4056,7 @@
         <v>1952.85</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -2875,7 +4076,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -2895,7 +4096,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -2915,7 +4116,7 @@
         <v>74.569999999999993</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E65"/>
       <c r="G65" t="s">
         <v>20</v>
@@ -2930,7 +4131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>19</v>
       </c>
@@ -2952,7 +4153,7 @@
         <v>1118.9000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +4174,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="32" t="s">
         <v>24</v>
       </c>
@@ -2994,7 +4195,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="32" t="s">
         <v>25</v>
       </c>
@@ -3015,7 +4216,7 @@
         <v>1690.48</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -3035,7 +4236,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -3055,7 +4256,7 @@
         <v>130.19</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -3075,7 +4276,7 @@
         <v>-80.47</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>20</v>
       </c>
@@ -3089,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
         <v>19</v>
       </c>
@@ -3111,7 +4312,7 @@
         <v>-1499.3</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="32" t="s">
         <v>23</v>
       </c>
@@ -3132,7 +4333,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="32" t="s">
         <v>24</v>
       </c>
@@ -3153,7 +4354,7 @@
         <v>-7.11</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="32" t="s">
         <v>25</v>
       </c>
@@ -3174,7 +4375,7 @@
         <v>3266.73</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -3194,7 +4395,7 @@
         <v>35.31</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -3214,7 +4415,7 @@
         <v>89.61</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -3234,7 +4435,7 @@
         <v>-90.98</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -3270,910 +4471,4494 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="91.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="92" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="92" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="47" t="s">
+    <row r="1" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="O4" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="77"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="95">
+        <f>D8+D17+D26+D35+D45+D54+D63+D72+D81</f>
+        <v>60967.91</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="95">
+        <f>G8+G17+G26+G35+G45+G54+G63+G72+G81</f>
+        <v>37462.01</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="95">
+        <f>J8+J17+J26+J35+J45+J54+J63+J72+J81</f>
+        <v>36738.829999999994</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="95">
+        <f t="shared" ref="M6" si="0">M8+M17+M26+M35+M45+M54+M63+M72+M81</f>
+        <v>49748.439999999995</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="95">
+        <f t="shared" ref="P6" si="1">P8+P17+P26+P35+P45+P54+P63+P72+P81</f>
+        <v>29140.920000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="47"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="79">
+        <v>3758.99</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="86">
+        <v>-25.84</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="51">
+        <v>2046.07</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="58">
+        <v>1201.1500000000001</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="34">
+        <v>2108.1999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="47">
+        <v>5</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="81">
+        <v>1.52</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="53">
+        <v>1</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="60">
+        <v>1.23</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="60">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="60">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="47">
+        <v>5</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="82">
+        <v>28.26</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="85">
+        <v>-0.16</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="60">
+        <v>11.43</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="60">
+        <v>6.46</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="60">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="47">
+        <v>5</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="83">
+        <v>1271.05</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="54">
+        <v>2609.1</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="61">
+        <v>2019.22</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="61">
+        <v>1695.42</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="61">
+        <v>1977.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+      <c r="C12" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="82">
+        <v>9.76</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="53">
+        <v>24.66</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="60">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="60">
+        <v>20.62</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="60">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="47">
+        <v>5</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="83">
+        <v>165.69</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="54">
+        <v>107.75</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="61">
+        <v>135.16</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="61">
+        <v>131.16999999999999</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="61">
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="47"/>
+      <c r="C14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="84">
+        <v>-107.11</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="56">
+        <v>-84.86</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="63">
+        <v>-88.56</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="63">
+        <v>-103.14</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="63">
+        <v>-90.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="79">
+        <v>5136.9399999999996</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="34">
+        <v>6679.86</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="51">
+        <v>5133.12</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="51">
+        <v>3272.92</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="51">
+        <v>1883.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="47">
+        <v>4</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="81">
+        <v>1.78</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="87">
+        <v>1.69</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="53">
+        <v>1.46</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="53">
+        <v>1.28</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="53">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="47">
+        <v>4</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="82">
+        <v>36.96</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="87">
+        <v>38.61</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="53">
+        <v>28.05</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="53">
+        <v>16.78</v>
+      </c>
+      <c r="O19" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="53">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="92">
+        <v>10</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="83">
+        <v>2095.0700000000002</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="83">
+        <v>1439.97</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="54">
+        <v>1681.42</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="54">
+        <v>1861.22</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="54">
+        <v>2160.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="47"/>
+      <c r="C21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="82">
+        <v>14.63</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="83">
+        <v>9.18</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="53">
+        <v>19</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="53">
+        <v>15.58</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="53">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="47">
+        <v>30</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="83">
+        <v>180.63</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="83">
+        <v>212.68</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="54">
+        <v>199.91</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="54">
+        <v>170.56</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="54">
+        <v>154.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="C23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="84">
+        <v>-89.24</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="84">
+        <v>-101</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="56">
+        <v>-111.48</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="56">
+        <v>-109.69</v>
+      </c>
+      <c r="O23" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="56">
+        <v>-99.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="79">
+        <v>8365.44</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="79">
+        <v>7941.72</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="51">
+        <v>7001.48</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="34">
+        <v>10686.12</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="51">
+        <v>9243.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="47">
+        <v>7</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="81">
+        <v>1.49</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="87">
+        <v>1.49</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="53">
+        <v>1.41</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="53">
+        <v>1.64</v>
+      </c>
+      <c r="O27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="53">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="47">
+        <v>7</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="82">
+        <v>43.34</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="87">
+        <v>45.12</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="53">
+        <v>37.64</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="53">
+        <v>54.24</v>
+      </c>
+      <c r="O28" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="P28" s="53">
+        <v>56.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="88">
+        <v>35</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="83">
+        <v>2866.13</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="83">
+        <v>3159.27</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="54">
+        <v>3646.87</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="54">
+        <v>3131.19</v>
+      </c>
+      <c r="O29" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="54">
+        <v>3507.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="47"/>
+      <c r="C30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="82">
+        <v>15</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="83">
+        <v>19.43</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="53">
+        <v>23.06</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="53">
+        <v>16.23</v>
+      </c>
+      <c r="O30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="53">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="47">
+        <v>10</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="83">
+        <v>269.25</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="83">
+        <v>281.82</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="54">
+        <v>268.44</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="54">
+        <v>283.14</v>
+      </c>
+      <c r="O31" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="54">
+        <v>282.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="47"/>
+      <c r="C32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="84">
+        <v>-171.15</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="84">
+        <v>-181.05</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="56">
+        <v>-171.12</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="56">
+        <v>-167.78</v>
+      </c>
+      <c r="O32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="56">
+        <v>-157.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="47"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="G33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="47"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="79">
+        <v>7201.06</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="51">
+        <v>3474.72</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="51">
+        <v>4818.99</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="58">
+        <v>3640.68</v>
+      </c>
+      <c r="O35" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="34">
+        <v>5052.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="47">
+        <v>3</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="81">
+        <v>1.48</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="94">
+        <v>1.26</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="60">
+        <v>1.33</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="60">
+        <v>1.22</v>
+      </c>
+      <c r="O36" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="60">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="47">
+        <v>3</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="82">
+        <v>44.45</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="94">
+        <v>18.48</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="60">
+        <v>24.09</v>
+      </c>
+      <c r="L37" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="60">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="O37" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="60">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="93">
+        <v>30</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="83">
+        <v>2860.38</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="54">
+        <v>3870.69</v>
+      </c>
+      <c r="I38" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="61">
+        <v>3435.09</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="61">
+        <v>3670.42</v>
+      </c>
+      <c r="O38" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="61">
+        <v>2848.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="47"/>
+      <c r="C39" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="82">
+        <v>15.84</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="54">
+        <v>22.65</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="60">
+        <v>21.17</v>
+      </c>
+      <c r="L39" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="60">
+        <v>25.85</v>
+      </c>
+      <c r="O39" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="60">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="47">
+        <v>25</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="83">
+        <v>327.79</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="54">
+        <v>216.49</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="61">
+        <v>228.56</v>
+      </c>
+      <c r="L40" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="61">
+        <v>221.33</v>
+      </c>
+      <c r="O40" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="61">
+        <v>202.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="47"/>
+      <c r="C41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="84">
+        <v>-160.52000000000001</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="56">
+        <v>-121.92</v>
+      </c>
+      <c r="I41" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="63">
+        <v>-127.03</v>
+      </c>
+      <c r="L41" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="63">
+        <v>-139.83000000000001</v>
+      </c>
+      <c r="O41" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="63">
+        <v>-88.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="47"/>
+      <c r="G42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="47"/>
+      <c r="G43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="47"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="51">
+        <v>32602.27</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="51">
+        <v>16206.23</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="51">
+        <v>18743.64</v>
+      </c>
+      <c r="L45" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="34">
+        <v>28845.83</v>
+      </c>
+      <c r="O45" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="51">
+        <v>10303.120000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="47">
+        <v>1</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="94">
+        <v>1.92</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="94">
+        <v>1.46</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="53">
+        <v>1.53</v>
+      </c>
+      <c r="L46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="53">
+        <v>1.76</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="53">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="94">
+        <v>163.83000000000001</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="94">
+        <v>101.29</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="53">
+        <v>112.24</v>
+      </c>
+      <c r="L47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="53">
+        <v>151.82</v>
+      </c>
+      <c r="O47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="P47" s="53">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="92">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="F2" s="1">
-        <f>F3+F12+F21+F30+F40+F49+F58+F67+F76</f>
-        <v>2699.51</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="32" t="s">
+      <c r="C48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="54">
+        <v>3683.41</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="54">
+        <v>6472.62</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="54">
+        <v>4584.6899999999996</v>
+      </c>
+      <c r="L48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="54">
+        <v>5345.01</v>
+      </c>
+      <c r="O48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="54">
+        <v>7148.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="47"/>
+      <c r="C49" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="54">
+        <v>12.7</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="54">
+        <v>31.51</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="53">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="L49" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="53">
+        <v>12.67</v>
+      </c>
+      <c r="O49" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" s="85">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="47">
+        <v>10</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="54">
+        <v>764.86</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="54">
+        <v>646.86</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="54">
+        <v>621.54999999999995</v>
+      </c>
+      <c r="L50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="54">
+        <v>606.86</v>
+      </c>
+      <c r="O50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="54">
+        <v>482.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="47"/>
+      <c r="C51" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="56">
+        <v>-322.45999999999998</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="56">
+        <v>-430.81</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="56">
+        <v>-441.65</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="56">
+        <v>-473.86</v>
+      </c>
+      <c r="O51" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" s="56">
+        <v>-442.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="47"/>
+      <c r="D52"/>
+      <c r="G52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="47"/>
+      <c r="C53" s="104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="75"/>
+      <c r="C54" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="97">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="34">
+        <v>813.49</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="86">
+        <v>-2758.55</v>
+      </c>
+      <c r="L54" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="86">
+        <v>-1291</v>
+      </c>
+      <c r="O54" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="86">
+        <v>-1564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="32" t="s">
+      <c r="B55" s="47">
+        <v>5</v>
+      </c>
+      <c r="C55" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="99">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="99">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="99">
+        <v>0.77</v>
+      </c>
+      <c r="O55" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="99">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="B56" s="47">
+        <v>5</v>
+      </c>
+      <c r="C56" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="100">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="100">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="100">
+        <v>-14</v>
+      </c>
+      <c r="L56" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="100">
+        <v>-6.42</v>
+      </c>
+      <c r="O56" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="P56" s="100">
+        <v>-8.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="88">
+        <v>10</v>
+      </c>
+      <c r="C57" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="32" t="s">
+      <c r="D57" s="101">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="101">
+        <v>1699.58</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="101">
+        <v>3009.9</v>
+      </c>
+      <c r="L57" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="101">
+        <v>2641.24</v>
+      </c>
+      <c r="O57" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="101">
+        <v>4003.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="100">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="100">
+        <v>18.43</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="100">
+        <v>36.51</v>
+      </c>
+      <c r="L58" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="100">
+        <v>28.77</v>
+      </c>
+      <c r="O58" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="P58" s="100">
+        <v>43.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="75">
+        <v>500</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="101">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="101">
+        <v>92.23</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="101">
+        <v>37.25</v>
+      </c>
+      <c r="L59" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="101">
+        <v>56.89</v>
+      </c>
+      <c r="O59" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="101">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="103">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="103">
+        <v>-49.44</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="103">
+        <v>-44.18</v>
+      </c>
+      <c r="L60" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="103">
+        <v>-45.74</v>
+      </c>
+      <c r="O60" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="P60" s="103">
+        <v>-61.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="12"/>
+      <c r="G61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="47"/>
+      <c r="C62" s="12"/>
+      <c r="D62"/>
+      <c r="F62" s="12"/>
+      <c r="G62"/>
+      <c r="I62" s="12"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="75"/>
+      <c r="C63" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="97">
+        <v>3903.21</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="97">
+        <v>2371.83</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="97">
+        <v>1754.08</v>
+      </c>
+      <c r="L63" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="M63" s="34">
+        <v>3392.74</v>
+      </c>
+      <c r="O63" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="P63" s="51">
+        <v>2113.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="47">
+        <v>7</v>
+      </c>
+      <c r="C64" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="99">
+        <v>1.36</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="99">
+        <v>1.22</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="99">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L64" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="99">
+        <v>1.29</v>
+      </c>
+      <c r="O64" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="P64" s="99">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="47">
+        <v>7</v>
+      </c>
+      <c r="C65" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="100">
+        <v>21.68</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="100">
+        <v>12.42</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="100">
+        <v>8.56</v>
+      </c>
+      <c r="L65" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="100">
+        <v>16</v>
+      </c>
+      <c r="O65" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="P65" s="100">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B66" s="74">
+        <v>5</v>
+      </c>
+      <c r="C66" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="E9" t="s">
+      <c r="D66" s="101">
+        <v>1859.57</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="101">
+        <v>2448.38</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="101">
+        <v>2499.94</v>
+      </c>
+      <c r="L66" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="101">
+        <v>2283.9899999999998</v>
+      </c>
+      <c r="O66" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="101">
+        <v>2735.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="100">
+        <v>14.44</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="100">
+        <v>24.63</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="100">
+        <v>22.36</v>
+      </c>
+      <c r="L67" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" s="100">
+        <v>18.11</v>
+      </c>
+      <c r="O67" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="100">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="75">
+        <v>20</v>
+      </c>
+      <c r="C68" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="101">
+        <v>177.11</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="101">
+        <v>145.93</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="101">
+        <v>146.93</v>
+      </c>
+      <c r="L68" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M68" s="101">
+        <v>161.34</v>
+      </c>
+      <c r="O68" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="P68" s="101">
+        <v>170.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="E18" t="s">
+      <c r="D69" s="103">
+        <v>-114.31</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="27">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="E27" t="s">
+      <c r="G69" s="103">
+        <v>-104.08</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="31">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="E36" t="s">
+      <c r="J69" s="103">
+        <v>-101.9</v>
+      </c>
+      <c r="L69" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="F38"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0</v>
-      </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="D44" s="12"/>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="D45" s="12"/>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="14">
-        <v>0</v>
-      </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="26"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="D46" s="12"/>
-      <c r="E46" t="s">
+      <c r="M69" s="103">
+        <v>-97.58</v>
+      </c>
+      <c r="O69" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="14">
-        <v>0</v>
-      </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="26"/>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="27">
-        <v>10</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="E56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="14">
-        <v>2699.51</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="15">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="15">
-        <v>15.17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="15">
-        <v>18.72</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="14">
-        <v>156.77000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="14">
-        <v>-105.79</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="P69" s="103">
+        <v>-106.91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="47"/>
+      <c r="D70"/>
+      <c r="G70"/>
+      <c r="J70"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="D72" s="16"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="68"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="20"/>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="20"/>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="20"/>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="69"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="68"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="69"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="68"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="69"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="71"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="68"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="72"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="68"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="70"/>
+      <c r="J83" s="72"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="68"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="71"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="72"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="71"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="71"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="91.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="92" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="95">
+        <f>D8+D17+D26+D35+D45+D54+D63+D72+D81</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="95">
+        <f>G8+G17+G26+G35+G45+G54+G63+G72+G81</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="95">
+        <f>J8+J17+J26+J35+J45+J54+J63+J72+J81</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="95">
+        <f t="shared" ref="M6" si="0">M8+M17+M26+M35+M45+M54+M63+M72+M81</f>
+        <v>41252.97</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="91"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="79">
+        <v>0</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="79">
+        <v>0</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="79">
+        <v>0</v>
+      </c>
+      <c r="L8" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="79">
+        <v>983.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="91">
+        <v>5</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="81">
+        <v>0</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="81">
+        <v>0</v>
+      </c>
+      <c r="L9" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="81">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="91">
+        <v>5</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="82">
+        <v>0</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="82">
+        <v>0</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="82">
+        <v>0</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="82">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="91">
+        <v>5</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="83">
+        <v>0</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="83">
+        <v>0</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="83">
+        <v>0</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="83">
+        <v>1697.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="91"/>
+      <c r="C12" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="82">
+        <v>0</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="82">
+        <v>0</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="82">
+        <v>0</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="82">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="91">
+        <v>5</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="83">
+        <v>0</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="83">
+        <v>0</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="83">
+        <v>0</v>
+      </c>
+      <c r="L13" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="83">
+        <v>128.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="84">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="84">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="84">
+        <v>0</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="84">
+        <v>-85.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="91"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="79">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="79">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="L17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="79">
+        <v>2273.42</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="91">
+        <v>4</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="81">
+        <v>0</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="81">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="91">
+        <v>4</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="82">
+        <v>0</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="82">
+        <v>0</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="82">
+        <v>0</v>
+      </c>
+      <c r="L19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="82">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="92">
+        <v>10</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="83">
+        <v>0</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="83">
+        <v>0</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="83">
+        <v>0</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="83">
+        <v>2716.27</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="82">
+        <v>0</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="82">
+        <v>0</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="82">
+        <v>0</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="82">
+        <v>22.26</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="91">
+        <v>30</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="83">
+        <v>0</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="83">
+        <v>0</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="83">
+        <v>0</v>
+      </c>
+      <c r="L22" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="83">
+        <v>154.44999999999999</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="84">
+        <v>0</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="84">
+        <v>0</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="84">
+        <v>0</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="84">
+        <v>-109.72</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="91"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="79">
+        <v>0</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="79">
+        <v>0</v>
+      </c>
+      <c r="I26" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="79">
+        <v>0</v>
+      </c>
+      <c r="L26" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="79">
+        <v>6670.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="91">
+        <v>7</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="81">
+        <v>0</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="81">
+        <v>0</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="81">
+        <v>0</v>
+      </c>
+      <c r="L27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="81">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="91">
+        <v>7</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="82">
+        <v>0</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="82">
+        <v>0</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="82">
+        <v>0</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="82">
+        <v>50.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="88">
+        <v>35</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="83">
+        <v>0</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="83">
+        <v>0</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="83">
+        <v>0</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="83">
+        <v>2985.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="82">
+        <v>0</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="82">
+        <v>0</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="82">
+        <v>0</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="82">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="91">
+        <v>10</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="83">
+        <v>0</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="83">
+        <v>0</v>
+      </c>
+      <c r="I31" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="83">
+        <v>0</v>
+      </c>
+      <c r="L31" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="83">
+        <v>301.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="91"/>
+      <c r="C32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="84">
+        <v>0</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="84">
+        <v>0</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="84">
+        <v>0</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="84">
+        <v>-158.69999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="91"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="G33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="91"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="79">
+        <v>0</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="79">
+        <v>0</v>
+      </c>
+      <c r="I35" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="79">
+        <v>0</v>
+      </c>
+      <c r="L35" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="79">
+        <v>995.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="91">
+        <v>3</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0</v>
+      </c>
+      <c r="F36" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="81">
+        <v>0</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="81">
+        <v>0</v>
+      </c>
+      <c r="L36" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="81">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="91">
+        <v>3</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="82">
+        <v>0</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="82">
+        <v>0</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="82">
+        <v>0</v>
+      </c>
+      <c r="L37" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="82">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="93">
+        <v>30</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="83">
+        <v>0</v>
+      </c>
+      <c r="F38" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="83">
+        <v>0</v>
+      </c>
+      <c r="I38" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="83">
+        <v>0</v>
+      </c>
+      <c r="L38" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="83">
+        <v>3020.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="91"/>
+      <c r="C39" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="82">
+        <v>0</v>
+      </c>
+      <c r="F39" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="82">
+        <v>0</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="82">
+        <v>0</v>
+      </c>
+      <c r="L39" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="82">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="91">
+        <v>25</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="83">
+        <v>0</v>
+      </c>
+      <c r="F40" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="83">
+        <v>0</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="83">
+        <v>0</v>
+      </c>
+      <c r="L40" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="83">
+        <v>195.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="91"/>
+      <c r="C41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="84">
+        <v>0</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="84">
+        <v>0</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="84">
+        <v>0</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="84">
+        <v>-132.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="91"/>
+      <c r="G42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="91"/>
+      <c r="G43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="91"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="79">
+        <v>0</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="79">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="79">
+        <v>0</v>
+      </c>
+      <c r="L45" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="79">
+        <v>26092.48</v>
+      </c>
+      <c r="O45" s="25"/>
+      <c r="P45" s="26"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="91">
+        <v>1</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="81">
+        <v>0</v>
+      </c>
+      <c r="F46" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="81">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="81">
+        <v>0</v>
+      </c>
+      <c r="L46" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="81">
+        <v>2.16</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="91">
+        <v>1</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="82">
+        <v>0</v>
+      </c>
+      <c r="F47" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="82">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="82">
+        <v>0</v>
+      </c>
+      <c r="L47" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="82">
+        <v>217.44</v>
+      </c>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="92">
+        <v>2</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="83">
+        <v>0</v>
+      </c>
+      <c r="F48" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="83">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="83">
+        <v>0</v>
+      </c>
+      <c r="L48" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="83">
+        <v>5298.38</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="P48" s="26"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="91"/>
+      <c r="C49" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="82">
+        <v>0</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="82">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="82">
+        <v>0</v>
+      </c>
+      <c r="L49" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="82">
+        <v>13.46</v>
+      </c>
+      <c r="O49" s="25"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="91">
+        <v>10</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="83">
+        <v>0</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="83">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="83">
+        <v>0</v>
+      </c>
+      <c r="L50" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="83">
+        <v>675.92</v>
+      </c>
+      <c r="O50" s="25"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="91"/>
+      <c r="C51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="84">
+        <v>0</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="84">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="84">
+        <v>0</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="84">
+        <v>-470.29</v>
+      </c>
+      <c r="O51" s="25"/>
+      <c r="P51" s="26"/>
+    </row>
+    <row r="52" spans="1:16" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="91"/>
+      <c r="D52"/>
+      <c r="G52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="91"/>
+      <c r="C53" s="107"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="75"/>
+      <c r="C54" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="79">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="79">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="79">
+        <v>0</v>
+      </c>
+      <c r="L54" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="86">
+        <v>-1564.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="91">
+        <v>5</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="81">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="81">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="81">
+        <v>0</v>
+      </c>
+      <c r="L55" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="81">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="91">
+        <v>5</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="82">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="82">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="82">
+        <v>0</v>
+      </c>
+      <c r="L56" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="82">
+        <v>-13.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="88">
+        <v>10</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="83">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="83">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="83">
+        <v>0</v>
+      </c>
+      <c r="L57" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="83">
+        <v>1718.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="82">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="82">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="82">
+        <v>0</v>
+      </c>
+      <c r="L58" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="82">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="75">
+        <v>500</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="83">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="83">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="83">
+        <v>0</v>
+      </c>
+      <c r="L59" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="83">
+        <v>91.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="84">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="84">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="84">
+        <v>0</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="84">
+        <v>-76.760000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="12"/>
+      <c r="G61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="91"/>
+      <c r="C62" s="12"/>
+      <c r="D62"/>
+      <c r="F62" s="12"/>
+      <c r="G62"/>
+      <c r="I62" s="12"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="75"/>
+      <c r="C63" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="79">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="79">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="79">
+        <v>0</v>
+      </c>
+      <c r="L63" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M63" s="79">
+        <v>5802.59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="91">
+        <v>7</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="81">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="81">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="81">
+        <v>0</v>
+      </c>
+      <c r="L64" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="81">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="91">
+        <v>7</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="82">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="82">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="82">
+        <v>0</v>
+      </c>
+      <c r="L65" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="82">
+        <v>40.020000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="74">
+        <v>5</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="83">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="83">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="83">
+        <v>0</v>
+      </c>
+      <c r="L66" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="83">
+        <v>1960.58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="82">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="82">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="82">
+        <v>0</v>
+      </c>
+      <c r="L67" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" s="82">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="75">
+        <v>20</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="83">
+        <v>0</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="83">
+        <v>0</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="83">
+        <v>0</v>
+      </c>
+      <c r="L68" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M68" s="83">
+        <v>219.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="84">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="84">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="84">
+        <v>0</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="84">
+        <v>-118.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="91"/>
+      <c r="D70"/>
+      <c r="G70"/>
+      <c r="J70"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="68"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="69"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="68"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="69"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="68"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="69"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="71"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="68"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="72"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="68"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="70"/>
+      <c r="J83" s="72"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="68"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="71"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="72"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="71"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="71"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="115">
+        <v>42151</v>
+      </c>
+      <c r="C4" s="115">
+        <v>42238</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-896.2</v>
+      </c>
+      <c r="H4">
+        <v>0.69</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-14.45</v>
+      </c>
+      <c r="K4" s="116">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>62.72</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-96.77</v>
+      </c>
+      <c r="N4" s="117">
+        <v>0.52</v>
+      </c>
+      <c r="O4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-394.6</v>
+      </c>
+      <c r="H5">
+        <v>0.17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-6.07</v>
+      </c>
+      <c r="K5" s="116">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-10.27</v>
+      </c>
+      <c r="N5" s="117">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-613.04999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.38</v>
+      </c>
+      <c r="I6">
+        <v>-12.02</v>
+      </c>
+      <c r="K6">
+        <v>5.21</v>
+      </c>
+      <c r="L6">
+        <v>19.64</v>
+      </c>
+      <c r="M6">
+        <v>-30.82</v>
+      </c>
+      <c r="N6" s="117">
+        <v>0.37</v>
+      </c>
+      <c r="O6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-291.82</v>
+      </c>
+      <c r="H7">
+        <v>0.32</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-4.71</v>
+      </c>
+      <c r="K7" s="116">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-10.69</v>
+      </c>
+      <c r="N7" s="117">
+        <v>0.35</v>
+      </c>
+      <c r="O7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-255.39</v>
+      </c>
+      <c r="H8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="K8" s="116">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-8.5299999999999994</v>
+      </c>
+      <c r="N8" s="117">
+        <v>0.3</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="118">
+        <f>SUM(G4:G8)</f>
+        <v>-2451.06</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>